--- a/ATDD Scenarios/LookupValue.xlsx
+++ b/ATDD Scenarios/LookupValue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.178.68\fluxxus\Projects\Books\Packt\Contracts\Automated Testing in Microsoft Dynamics 365 Business Central\Source\Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luc van Vugt\source\repos\Automated-Testing-in-Microsoft-Dynamics-365-Business-Central\ATDD Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11BBAD-D0BD-448F-8EFE-5240A9DD8CE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC4E7D-B4DA-4FE8-9B9C-539E9265224C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12510" xr2:uid="{37BCB399-09BD-4B93-AAF4-793E3BF59A9F}"/>
+    <workbookView xWindow="29610" yWindow="-1995" windowWidth="28110" windowHeight="18240" xr2:uid="{37BCB399-09BD-4B93-AAF4-793E3BF59A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="ATDD Scenarios" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="156">
   <si>
     <t>Feature</t>
   </si>
@@ -495,6 +496,9 @@
   </si>
   <si>
     <t>Report dataset contains both customers with lookup value</t>
+  </si>
+  <si>
+    <t>ATDD.TestScriptor Format</t>
   </si>
 </sst>
 </file>
@@ -504,7 +508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +522,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -552,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -628,11 +638,47 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -651,26 +697,6 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -757,6 +783,26 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -771,24 +817,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D26859EB-C8DA-46B9-9E4C-0C2909BE7347}" name="Table29" displayName="Table29" ref="A1:K169" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:K169" xr:uid="{74C06549-5BDA-49EA-8217-9DE86359CCAF}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D26859EB-C8DA-46B9-9E4C-0C2909BE7347}" name="Table29" displayName="Table29" ref="A1:L169" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:L169" xr:uid="{74C06549-5BDA-49EA-8217-9DE86359CCAF}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{94AE38D3-5B70-43B1-956A-6DFBCCC3FA71}" name="Feature"/>
     <tableColumn id="9" xr3:uid="{39B338AE-1DE7-47E0-9DFF-EB558B693D9E}" name="Sub Feature"/>
     <tableColumn id="11" xr3:uid="{8F685D88-2001-49B6-A560-44AC61A85751}" name="Document"/>
-    <tableColumn id="10" xr3:uid="{4B57D4E1-7F53-4AB1-93B7-628D0D759AD9}" name="UI" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2B877830-769C-4915-8F5E-FA01A5B40D0A}" name="Scenario" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{4B57D4E1-7F53-4AB1-93B7-628D0D759AD9}" name="UI" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{2B877830-769C-4915-8F5E-FA01A5B40D0A}" name="Scenario" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{470B84A4-8789-448A-A9D4-722FDC7901C1}" name="Given-When-Then (Tag)"/>
-    <tableColumn id="5" xr3:uid="{187F9A26-F5CB-459C-8492-DB888AAB8AB0}" name="Given-When-Then (Description)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4877F37D-5FB5-43A6-8EB2-58971E92F829}" name="Scenario #" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{FB203AB3-EB4E-44B7-8CE3-8DC29CEF57D6}" name="ATDD Format" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{187F9A26-F5CB-459C-8492-DB888AAB8AB0}" name="Given-When-Then (Description)" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4877F37D-5FB5-43A6-8EB2-58971E92F829}" name="Scenario #" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{FB203AB3-EB4E-44B7-8CE3-8DC29CEF57D6}" name="ATDD Format" dataDxfId="13">
       <calculatedColumnFormula>IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",_xlfn.CONCAT("[FEATURE] ",_xlfn.CONCAT(Table29[[#This Row],[Feature]]," ",Table29[[#This Row],[Sub Feature]])),_xlfn.CONCAT("[SCENARIO #",TEXT(Table29[[#This Row],[Scenario '#]],"0000"),"] ",Table29[[#This Row],[Scenario]])),_xlfn.CONCAT("[",UPPER(Table29[[#This Row],[Given-When-Then (Tag)]]),"] ",Table29[[#This Row],[Given-When-Then (Description)]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C2A0C887-D273-4FD4-A6E5-600431087352}" name="Code Format" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{C2A0C887-D273-4FD4-A6E5-600431087352}" name="Code Format" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4AFC5B46-7C66-43E4-9E10-A3B6652FAF25}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{36DC9E15-3976-4F56-8FA0-7CF688CBA94D}" name="ATDD.TestScriptor Format" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4AFC5B46-7C66-43E4-9E10-A3B6652FAF25}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1091,24 +1140,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A05CD-DD6F-435A-8EFB-058B6AB8AAF4}">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="46" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="14" customWidth="1"/>
     <col min="9" max="10" width="48.42578125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="47.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="48.42578125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,10 +1193,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1164,9 +1220,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue UT Customer</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="30" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue UT' {</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1187,11 +1247,15 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0001] Assign lookup value to customer</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="29" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0001 'Assign lookup value to customer' {</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1215,8 +1279,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="29" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1240,8 +1308,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="29" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1265,8 +1337,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on customer</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="29" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on customer'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1366,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Customer has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="29" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Customer has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1392,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0002] Assign non-existing lookup value to customer</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0002 'Assign non-existing lookup value to customer' {</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1337,8 +1421,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A non-existing lookup value</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A non-existing lookup value'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1362,8 +1450,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer record variable</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer record variable'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1387,8 +1479,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set non-existing lookup value on customer</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set non-existing lookup value on customer'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1412,8 +1508,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Non existing lookup value error thrown</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Non existing lookup value error thrown' }</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1437,8 +1537,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0003] Assign lookup value on customer card</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0003 'Assign lookup value on customer card' {</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1465,8 +1569,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1493,8 +1601,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer card</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer card'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1521,8 +1633,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on customer card</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on customer card'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1549,8 +1665,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Customer has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Customer has lookup value code field populated' } }</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1571,9 +1691,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue UT Sales Document</v>
       </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue UT' {</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1594,8 +1718,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0004] Assign lookup value to sales header</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0004 'Assign lookup value to sales header' {</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1619,8 +1747,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1644,8 +1776,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales header</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales header'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1669,8 +1805,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on sales header</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on sales header'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1694,8 +1834,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales header has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Sales header has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1716,8 +1860,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0005] Assign non-existing lookup value on sales header</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0005 'Assign non-existing lookup value on sales header' {</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1741,8 +1889,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A non-existing lookup value</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A non-existing lookup value'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1766,8 +1918,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales header record variable</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales header record variable'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1791,8 +1947,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set non-existing lookup value to sales header</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set non-existing lookup value to sales header'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1816,8 +1976,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Non existing lookup value error was thrown</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Non existing lookup value error was thrown' }</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>11</v>
       </c>
@@ -1846,9 +2010,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0006] Assign lookup value on sales quote document page</v>
       </c>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0006 'Assign lookup value on sales quote document page' {</v>
+      </c>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1878,8 +2046,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1909,8 +2081,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales quote document page</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales quote document page'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1940,8 +2116,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on sales quote document</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on sales quote document'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1971,8 +2151,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales quote has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Sales quote has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>11</v>
       </c>
@@ -2001,9 +2185,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0007] Assign lookup value on sales order document page</v>
       </c>
-      <c r="K34" s="23"/>
-    </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0007 'Assign lookup value on sales order document page' {</v>
+      </c>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2033,8 +2221,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2064,8 +2256,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales order document page</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales order document page'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2095,8 +2291,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on sales order document</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on sales order document'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2126,8 +2326,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales order has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Sales order has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>11</v>
       </c>
@@ -2156,9 +2360,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0008] Assign lookup value on sales invoice document page</v>
       </c>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0008 'Assign lookup value on sales invoice document page' {</v>
+      </c>
+      <c r="L39" s="23"/>
+    </row>
+    <row r="40" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2188,8 +2396,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2219,8 +2431,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales invoice document page</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales invoice document page'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2250,8 +2466,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on sales invoice document</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on sales invoice document'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2281,8 +2501,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales invoice has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Sales invoice has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>11</v>
       </c>
@@ -2311,9 +2535,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0009] Assign lookup value on sales credit memo document page</v>
       </c>
-      <c r="K44" s="23"/>
-    </row>
-    <row r="45" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0009 'Assign lookup value on sales credit memo document page' {</v>
+      </c>
+      <c r="L44" s="23"/>
+    </row>
+    <row r="45" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2343,8 +2571,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2374,8 +2606,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales credit memo document page</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales credit memo document page'</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2405,8 +2641,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on sales credit memo document</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on sales credit memo document'</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2436,8 +2676,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales credit memo has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Sales credit memo has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
@@ -2466,9 +2710,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0010] Assign lookup value on sales return order document page</v>
       </c>
-      <c r="K49" s="23"/>
-    </row>
-    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0010 'Assign lookup value on sales return order document page' {</v>
+      </c>
+      <c r="L49" s="23"/>
+    </row>
+    <row r="50" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2498,8 +2746,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2529,8 +2781,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales return order document page</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales return order document page'</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2560,8 +2816,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on sales return order document</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on sales return order document'</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2591,8 +2851,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales return order has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Sales return order has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>11</v>
       </c>
@@ -2621,9 +2885,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0011] Assign lookup value on blanket sales order document page</v>
       </c>
-      <c r="K54" s="23"/>
-    </row>
-    <row r="55" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0011 'Assign lookup value on blanket sales order document page' {</v>
+      </c>
+      <c r="L54" s="23"/>
+    </row>
+    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2653,8 +2921,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2684,8 +2956,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A blanket sales order document page</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A blanket sales order document page'</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2715,8 +2991,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on blanket sales order document</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on blanket sales order document'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2746,8 +3026,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Blanket sales order has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Blanket sales order has lookup value code field populated' } }</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>11</v>
       </c>
@@ -2768,9 +3052,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue UT Customer Template</v>
       </c>
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue UT' {</v>
+      </c>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2791,11 +3079,15 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0012] Assign lookup value to customer template</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K60" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0012 'Assign lookup value to customer template' {</v>
+      </c>
+      <c r="L60" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2819,8 +3111,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2844,8 +3140,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer template</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer template'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2869,8 +3169,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on customer template</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on customer template'</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2894,8 +3198,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Customer template has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Customer template has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2916,8 +3224,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0013] Assign non-existing lookup value to customer template</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0013 'Assign non-existing lookup value to customer template' {</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2941,8 +3253,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A non-existing lookup value</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A non-existing lookup value'</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -2966,8 +3282,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer template record variable</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer template record variable'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2991,8 +3311,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set non-existing lookup value to customer template</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set non-existing lookup value to customer template'</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3016,8 +3340,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Non existing lookup value error was thrown</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Non existing lookup value error was thrown' }</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3041,8 +3369,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0014] Assign lookup value on customer template card</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0014 'Assign lookup value on customer template card' {</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3069,8 +3401,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3097,8 +3433,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer template card</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer template card'</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3125,8 +3465,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on customer template card</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on customer template card'</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3153,8 +3497,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Customer template has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Customer template has lookup value code field populated' } }</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>81</v>
       </c>
@@ -3175,9 +3523,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue Warehouse Shipment</v>
       </c>
-      <c r="K75" s="8"/>
-    </row>
-    <row r="76" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue' {</v>
+      </c>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>81</v>
       </c>
@@ -3202,9 +3554,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0015] Assign lookup value to warehouse shipment line</v>
       </c>
-      <c r="K76" s="23"/>
-    </row>
-    <row r="77" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0015 'Assign lookup value to warehouse shipment line' {</v>
+      </c>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3228,8 +3584,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3253,8 +3613,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A location with require shipment</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A location with require shipment'</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3278,8 +3642,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse employee for current user</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse employee for current user'</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -3303,8 +3671,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse shipment from released sales order with line with require shipment location</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse shipment from released sales order with line with require shipment location'</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3328,8 +3700,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on warehouse shipment line</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on warehouse shipment line'</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3353,8 +3729,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Warehouse shipment line has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Warehouse shipment line has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>81</v>
       </c>
@@ -3379,9 +3759,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0016] Assign non-existing lookup value on warehouse shipment line</v>
       </c>
-      <c r="K83" s="23"/>
-    </row>
-    <row r="84" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0016 'Assign non-existing lookup value on warehouse shipment line' {</v>
+      </c>
+      <c r="L83" s="23"/>
+    </row>
+    <row r="84" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3405,8 +3789,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A non-existing lookup value</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A non-existing lookup value'</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3430,8 +3818,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse shipment line record variable</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse shipment line record variable'</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -3455,8 +3847,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set non-existing lookup value to warehouse shipment line</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K86" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set non-existing lookup value to warehouse shipment line'</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -3480,8 +3876,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Non existing lookup value error was thrown</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Non existing lookup value error was thrown' }</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>81</v>
       </c>
@@ -3508,9 +3908,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0017] Assign lookup value to warehouse shipment line on warehouse shipment document page</v>
       </c>
-      <c r="K88" s="23"/>
-    </row>
-    <row r="89" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0017 'Assign lookup value to warehouse shipment line on warehouse shipment document page' {</v>
+      </c>
+      <c r="L88" s="23"/>
+    </row>
+    <row r="89" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -3537,8 +3941,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K89" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -3565,8 +3973,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A location with require shipment</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K90" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A location with require shipment'</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -3593,8 +4005,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse employee for current user</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K91" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse employee for current user'</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -3621,8 +4037,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse shipment from released sales order with line with require shipment location</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K92" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse shipment from released sales order with line with require shipment location'</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>81</v>
       </c>
@@ -3649,8 +4069,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set lookup value on warehouse shipment line on warehouse shipment document page</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K93" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set lookup value on warehouse shipment line on warehouse shipment document page'</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -3677,8 +4101,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Warehouse shipment line has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K94" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Warehouse shipment line has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>81</v>
       </c>
@@ -3703,9 +4131,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0030] Create warehouse shipment from sales order with lookup value</v>
       </c>
-      <c r="K95" s="23"/>
-    </row>
-    <row r="96" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K95" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0030 'Create warehouse shipment from sales order with lookup value' {</v>
+      </c>
+      <c r="L95" s="23"/>
+    </row>
+    <row r="96" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -3729,8 +4161,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K96" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3754,8 +4190,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A location with require shipment</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K97" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A location with require shipment'</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -3779,8 +4219,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse employee for current user</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K98" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse employee for current user'</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -3804,8 +4248,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Create warehouse shipment from released sales order with lookup value and with line with require shipment location</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K99" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Create warehouse shipment from released sales order with lookup value and with line with require shipment location'</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -3829,8 +4277,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Warehouse shipment line has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K100" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Warehouse shipment line has lookup value code field populated' }</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
         <v>81</v>
       </c>
@@ -3855,9 +4307,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0031] Get sales order with lookup value on warehouse shipment</v>
       </c>
-      <c r="K101" s="23"/>
-    </row>
-    <row r="102" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K101" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0031 'Get sales order with lookup value on warehouse shipment' {</v>
+      </c>
+      <c r="L101" s="23"/>
+    </row>
+    <row r="102" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -3881,8 +4337,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A lookup value</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K102" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A lookup value'</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -3906,8 +4366,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A location with require shipment</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K103" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A location with require shipment'</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -3931,8 +4395,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse employee for current user</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse employee for current user'</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -3956,8 +4424,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A released sales order with lookup value and with line with require shipment location</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A released sales order with lookup value and with line with require shipment location'</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -3981,8 +4453,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse shipment without lines</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K106" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse shipment without lines'</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -4006,8 +4482,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Get sales order with lookup value on warehouse shipment</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Get sales order with lookup value on warehouse shipment'</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -4031,8 +4511,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Warehouse shipment line has lookup value code field populated</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Warehouse shipment line has lookup value code field populated' } }</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>81</v>
       </c>
@@ -4053,9 +4537,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue Sales Archive</v>
       </c>
-      <c r="K109" s="8"/>
-    </row>
-    <row r="110" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K109" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue' {</v>
+      </c>
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
         <v>81</v>
       </c>
@@ -4082,9 +4570,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0018] Archive sales order with lookup value</v>
       </c>
-      <c r="K110" s="23"/>
-    </row>
-    <row r="111" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K110" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0018 'Archive sales order with lookup value' {</v>
+      </c>
+      <c r="L110" s="23"/>
+    </row>
+    <row r="111" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -4111,8 +4603,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales order with a lookup value</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K111" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales order with a lookup value'</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -4139,8 +4635,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Sales order is archived</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K112" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Sales order is archived'</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -4167,9 +4667,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Archived sales order has lookup value from sales order</v>
       </c>
-      <c r="K113"/>
-    </row>
-    <row r="114" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K113" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Archived sales order has lookup value from sales order' }</v>
+      </c>
+      <c r="L113"/>
+    </row>
+    <row r="114" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
         <v>81</v>
       </c>
@@ -4196,9 +4700,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0019] Archive sales quote with lookup value</v>
       </c>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K114" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0019 'Archive sales quote with lookup value' {</v>
+      </c>
+      <c r="L114" s="20"/>
+    </row>
+    <row r="115" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -4225,9 +4733,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales quote with a lookup value</v>
       </c>
-      <c r="K115"/>
-    </row>
-    <row r="116" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K115" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales quote with a lookup value'</v>
+      </c>
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -4254,9 +4766,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Sales quote is archived</v>
       </c>
-      <c r="K116"/>
-    </row>
-    <row r="117" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K116" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Sales quote is archived'</v>
+      </c>
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
@@ -4283,9 +4799,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Archived sales quote has lookup value from sales quote</v>
       </c>
-      <c r="K117"/>
-    </row>
-    <row r="118" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K117" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Archived sales quote has lookup value from sales quote' }</v>
+      </c>
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
         <v>81</v>
       </c>
@@ -4312,9 +4832,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0020] Archive sales return order with lookup value</v>
       </c>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K118" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0020 'Archive sales return order with lookup value' {</v>
+      </c>
+      <c r="L118" s="20"/>
+    </row>
+    <row r="119" spans="1:12" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>81</v>
       </c>
@@ -4341,9 +4865,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales return order with a lookup value</v>
       </c>
-      <c r="K119"/>
-    </row>
-    <row r="120" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K119" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales return order with a lookup value'</v>
+      </c>
+      <c r="L119"/>
+    </row>
+    <row r="120" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>81</v>
       </c>
@@ -4370,9 +4898,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Sales return order is archived</v>
       </c>
-      <c r="K120"/>
-    </row>
-    <row r="121" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K120" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Sales return order is archived'</v>
+      </c>
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>81</v>
       </c>
@@ -4399,9 +4931,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Archived sales return order has lookup value from sales return order</v>
       </c>
-      <c r="K121"/>
-    </row>
-    <row r="122" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K121" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Archived sales return order has lookup value from sales return order' }</v>
+      </c>
+      <c r="L121"/>
+    </row>
+    <row r="122" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
         <v>81</v>
       </c>
@@ -4430,9 +4966,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0021] Check that lookup value is shown right on Sales List Archive</v>
       </c>
-      <c r="K122" s="23"/>
-    </row>
-    <row r="123" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K122" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0021 'Check that lookup value is shown right on Sales List Archive' {</v>
+      </c>
+      <c r="L122" s="23"/>
+    </row>
+    <row r="123" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -4462,8 +5002,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales document with a lookup value</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K123" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales document with a lookup value'</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +5037,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Sales document is archived</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K124" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Sales document is archived'</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -4524,8 +5072,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Archived sales document has lookup value from sales document</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K125" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Archived sales document has lookup value from sales document'</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>81</v>
       </c>
@@ -4555,8 +5107,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] lookup value is shown right on Sales List Archive</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K126" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'lookup value is shown right on Sales List Archive' } }</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>81</v>
       </c>
@@ -4577,9 +5133,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue Inheritance</v>
       </c>
-      <c r="K127" s="8"/>
-    </row>
-    <row r="128" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K127" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue' {</v>
+      </c>
+      <c r="L127" s="8"/>
+    </row>
+    <row r="128" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>81</v>
       </c>
@@ -4602,9 +5162,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0024] Assign customer lookup value to sales document</v>
       </c>
-      <c r="K128"/>
-    </row>
-    <row r="129" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K128" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0024 'Assign customer lookup value to sales document' {</v>
+      </c>
+      <c r="L128"/>
+    </row>
+    <row r="129" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -4630,9 +5194,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer with a lookup value</v>
       </c>
-      <c r="K129"/>
-    </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K129" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer with a lookup value'</v>
+      </c>
+      <c r="L129"/>
+    </row>
+    <row r="130" spans="1:12" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>81</v>
       </c>
@@ -4658,9 +5226,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales document (invoice) without a lookup value</v>
       </c>
-      <c r="K130"/>
-    </row>
-    <row r="131" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K130" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales document (invoice) without a lookup value'</v>
+      </c>
+      <c r="L130"/>
+    </row>
+    <row r="131" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>81</v>
       </c>
@@ -4686,9 +5258,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Set customer on sales header</v>
       </c>
-      <c r="K131"/>
-    </row>
-    <row r="132" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K131" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Set customer on sales header'</v>
+      </c>
+      <c r="L131"/>
+    </row>
+    <row r="132" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -4714,9 +5290,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Lookup value on sales document is populated with lookup value of customer</v>
       </c>
-      <c r="K132"/>
-    </row>
-    <row r="133" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K132" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Lookup value on sales document is populated with lookup value of customer' }</v>
+      </c>
+      <c r="L132"/>
+    </row>
+    <row r="133" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -4737,9 +5317,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0028] Create customer from configuration template with lookup value</v>
       </c>
-      <c r="K133"/>
-    </row>
-    <row r="134" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K133" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0028 'Create customer from configuration template with lookup value' {</v>
+      </c>
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -4763,9 +5347,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A configuration template (customer) with lookup value</v>
       </c>
-      <c r="K134"/>
-    </row>
-    <row r="135" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K134" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A configuration template (customer) with lookup value'</v>
+      </c>
+      <c r="L134"/>
+    </row>
+    <row r="135" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -4789,9 +5377,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Create customer from configuration template</v>
       </c>
-      <c r="K135"/>
-    </row>
-    <row r="136" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K135" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Create customer from configuration template'</v>
+      </c>
+      <c r="L135"/>
+    </row>
+    <row r="136" spans="1:12" ht="39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -4815,9 +5407,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Lookup value on customer is populated with lookup value of configuration template</v>
       </c>
-      <c r="K136"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Lookup value on customer is populated with lookup value of configuration template' } }</v>
+      </c>
+      <c r="L136"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>81</v>
       </c>
@@ -4838,9 +5434,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue Posting</v>
       </c>
-      <c r="K137" s="8"/>
-    </row>
-    <row r="138" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K137" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue' {</v>
+      </c>
+      <c r="L137" s="8"/>
+    </row>
+    <row r="138" spans="1:12" ht="39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
         <v>81</v>
       </c>
@@ -4867,9 +5467,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0022] Check that posted sales invoice and shipment inherit lookup value from sales order</v>
       </c>
-      <c r="K138" s="23"/>
-    </row>
-    <row r="139" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K138" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0022 'Check that posted sales invoice and shipment inherit lookup value from sales order' {</v>
+      </c>
+      <c r="L138" s="23"/>
+    </row>
+    <row r="139" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -4896,8 +5500,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales order with a lookup value</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K139" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales order with a lookup value'</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -4924,8 +5532,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Sales order is posted (invoice &amp; ship)</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K140" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Sales order is posted (invoice &amp; ship)'</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>81</v>
       </c>
@@ -4952,8 +5564,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Posted sales invoice has lookup value from sales order</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K141" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Posted sales invoice has lookup value from sales order'</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>81</v>
       </c>
@@ -4980,8 +5596,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Sales shipment has lookup value from sales order</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K142" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Sales shipment has lookup value from sales order' }</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>81</v>
       </c>
@@ -5008,9 +5628,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0027] Check posting throws error on sales order with empty lookup value</v>
       </c>
-      <c r="K143" s="23"/>
-    </row>
-    <row r="144" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K143" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0027 'Check posting throws error on sales order with empty lookup value' {</v>
+      </c>
+      <c r="L143" s="23"/>
+    </row>
+    <row r="144" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -5037,8 +5661,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A sales order without a lookup value</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K144" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A sales order without a lookup value'</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -5065,8 +5693,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Sales order is posted (invoice &amp; ship)</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K145" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Sales order is posted (invoice &amp; ship)'</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -5093,8 +5725,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Missing lookup value on sales order error thrown</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K146" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Missing lookup value on sales order error thrown' }</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
         <v>81</v>
       </c>
@@ -5121,9 +5757,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0023] Check that posted warehouse shipment line inherits lookup value from sales order through warehouse shipment line</v>
       </c>
-      <c r="K147" s="23"/>
-    </row>
-    <row r="148" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K147" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0023 'Check that posted warehouse shipment line inherits lookup value from sales order through warehouse shipment line' {</v>
+      </c>
+      <c r="L147" s="23"/>
+    </row>
+    <row r="148" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -5150,8 +5790,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A location with require shipment</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K148" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A location with require shipment'</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>139</v>
       </c>
@@ -5178,8 +5822,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse employee for current user</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K149" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse employee for current user'</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>139</v>
       </c>
@@ -5206,8 +5854,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse shipment line with a lookup value created from a sales order</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K150" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse shipment line with a lookup value created from a sales order'</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>81</v>
       </c>
@@ -5234,8 +5886,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Warehouse shipment is posted</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K151" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Warehouse shipment is posted'</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>81</v>
       </c>
@@ -5262,8 +5918,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Posted warehouse shipment line has lookup value from warehouse shipment line</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K152" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Posted warehouse shipment line has lookup value from warehouse shipment line' }</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
         <v>81</v>
       </c>
@@ -5290,9 +5950,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0025] Check posting throws error on sales order with empty lookup value</v>
       </c>
-      <c r="K153" s="23"/>
-    </row>
-    <row r="154" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K153" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0025 'Check posting throws error on sales order with empty lookup value' {</v>
+      </c>
+      <c r="L153" s="23"/>
+    </row>
+    <row r="154" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>139</v>
       </c>
@@ -5319,8 +5983,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A location with require shipment</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K154" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A location with require shipment'</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>139</v>
       </c>
@@ -5347,8 +6015,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse employee for current user</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K155" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse employee for current user'</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>139</v>
       </c>
@@ -5375,8 +6047,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A warehouse shipment line created from a sales order without  lookup value</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K156" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A warehouse shipment line created from a sales order without  lookup value'</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +6079,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Warehouse shipment is posted</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K157" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Warehouse shipment is posted'</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>81</v>
       </c>
@@ -5431,8 +6111,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Missing lookup value on sales order error thrown</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K158" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Missing lookup value on sales order error thrown' } }</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>81</v>
       </c>
@@ -5453,9 +6137,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue Contact</v>
       </c>
-      <c r="K159" s="8"/>
-    </row>
-    <row r="160" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K159" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue' {</v>
+      </c>
+      <c r="L159" s="8"/>
+    </row>
+    <row r="160" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
         <v>81</v>
       </c>
@@ -5480,9 +6168,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0026] Check that lookup value is inherited from customer template to customer when creating customer from contact</v>
       </c>
-      <c r="K160" s="23"/>
-    </row>
-    <row r="161" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K160" s="33" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0026 'Check that lookup value is inherited from customer template to customer when creating customer from contact' {</v>
+      </c>
+      <c r="L160" s="23"/>
+    </row>
+    <row r="161" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>81</v>
       </c>
@@ -5506,8 +6198,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A customer template with lookup value</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K161" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A customer template with lookup value'</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>81</v>
       </c>
@@ -5531,8 +6227,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] A contact</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K162" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given 'A contact'</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>81</v>
       </c>
@@ -5556,8 +6256,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Customer is created from contact</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K163" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Customer is created from contact'</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>81</v>
       </c>
@@ -5581,8 +6285,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Customer has lookup value code field populated with lookup value from customer template</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K164" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Customer has lookup value code field populated with lookup value from customer template' } }</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>81</v>
       </c>
@@ -5603,9 +6311,13 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[FEATURE] LookupValue Report</v>
       </c>
-      <c r="K165" s="8"/>
-    </row>
-    <row r="166" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K165" s="32" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Feature 'LookupValue' {</v>
+      </c>
+      <c r="L165" s="8"/>
+    </row>
+    <row r="166" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>81</v>
       </c>
@@ -5626,8 +6338,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[SCENARIO #0029] Test that lookup value shows on CustomerList report</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K166" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Scenario 0029 'Test that lookup value shows on CustomerList report' {</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>81</v>
       </c>
@@ -5651,8 +6367,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[GIVEN] 2 customers with different lookup value</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K167" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Given '2 customers with different lookup value'</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>81</v>
       </c>
@@ -5676,8 +6396,12 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[WHEN] Run report CustomerList</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K168" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>When 'Run report CustomerList'</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>81</v>
       </c>
@@ -5701,10 +6425,14 @@
         <f>_xlfn.CONCAT("//",Table29[[#This Row],[ATDD Format]])</f>
         <v>//[THEN] Report dataset contains both customers with lookup value</v>
       </c>
+      <c r="K169" s="31" t="str">
+        <f ca="1">IF(Table29[[#This Row],[Given-When-Then (Tag)]]="",IF(Table29[[#This Row],[Scenario]]="",IF(Table29[[#This Row],[Feature]]&lt;&gt;"",_xlfn.CONCAT("Feature '",Table29[[#This Row],[Feature]],"' {"),""),_xlfn.CONCAT("Scenario ",TEXT(Table29[[#This Row],[Scenario '#]],"0000")," '",Table29[[#This Row],[Scenario]],"' {")),IF(INDIRECT("F" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"'"),IF(INDIRECT("E" &amp; ROW() + 1)&lt;&gt;"",_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' }"),_xlfn.CONCAT(Table29[[#This Row],[Given-When-Then (Tag)]]," '",Table29[[#This Row],[Given-When-Then (Description)]],"' } }"))))</f>
+        <v>Then 'Report dataset contains both customers with lookup value' } }</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D137:D142 D147:D1048576 D1:D100 D109:D132">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5721,12 +6449,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B142 B133:B136 A1:B100 A147:B1048576 A109:B132">
-    <cfRule type="containsBlanks" dxfId="16" priority="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D165">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5743,22 +6471,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165:B165 B166:B169">
-    <cfRule type="containsBlanks" dxfId="14" priority="8">
+    <cfRule type="containsBlanks" dxfId="9" priority="8">
       <formula>LEN(TRIM(A165))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143:D146">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143:B146">
-    <cfRule type="containsBlanks" dxfId="12" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="6">
       <formula>LEN(TRIM(A143))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133:D136">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5775,17 +6503,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:A136">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(A133))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101:D108">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B108">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A101))=0</formula>
     </cfRule>
   </conditionalFormatting>
